--- a/TimeTracker.xlsx
+++ b/TimeTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaganlenka/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B53541-C3EB-0C4C-96E0-3981DE5D7CD1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD57193D-AC8B-E947-AE3A-5FDFCBD87A9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>Lesson Plan 1.2 - Time Tracker</t>
   </si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Instructor Do: Review Terminal</t>
+  </si>
+  <si>
+    <t># hello</t>
   </si>
 </sst>
 </file>
@@ -1651,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1924,6 +1924,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
